--- a/Code/Results/Cases/Case_0_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_136/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.972327253926569</v>
+        <v>3.311947710001144</v>
       </c>
       <c r="D2">
-        <v>4.359415327551528</v>
+        <v>3.985601948137338</v>
       </c>
       <c r="E2">
-        <v>12.16546544010072</v>
+        <v>11.97137246248165</v>
       </c>
       <c r="F2">
-        <v>15.87993833582871</v>
+        <v>19.9036211589651</v>
       </c>
       <c r="G2">
-        <v>19.29234789946998</v>
+        <v>21.36340211124057</v>
       </c>
       <c r="H2">
-        <v>7.431023849736168</v>
+        <v>12.30490395739066</v>
       </c>
       <c r="I2">
-        <v>12.04449961028145</v>
+        <v>16.89346940137616</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.51064049631277</v>
+        <v>11.03682614254113</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.38626430378817</v>
+        <v>14.06451656611418</v>
       </c>
       <c r="N2">
-        <v>11.69562422344077</v>
+        <v>16.4954129498928</v>
       </c>
       <c r="O2">
-        <v>12.02954412608327</v>
+        <v>17.752069031066</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.671375709397656</v>
+        <v>3.161735716029046</v>
       </c>
       <c r="D3">
-        <v>4.163553054056889</v>
+        <v>3.909766878888276</v>
       </c>
       <c r="E3">
-        <v>11.51798300198446</v>
+        <v>11.86847653828877</v>
       </c>
       <c r="F3">
-        <v>15.34113204557017</v>
+        <v>19.88405102104489</v>
       </c>
       <c r="G3">
-        <v>18.48452036123545</v>
+        <v>21.30153028819468</v>
       </c>
       <c r="H3">
-        <v>7.428083457867056</v>
+        <v>12.34328035612758</v>
       </c>
       <c r="I3">
-        <v>11.77374954099839</v>
+        <v>16.91412700660238</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.49473050442921</v>
+        <v>10.50750684861218</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.27665448793747</v>
+        <v>13.77509068870351</v>
       </c>
       <c r="N3">
-        <v>11.75563413794136</v>
+        <v>16.52604496048048</v>
       </c>
       <c r="O3">
-        <v>11.85168323676839</v>
+        <v>17.79561707485923</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.476248318133365</v>
+        <v>3.06501660086435</v>
       </c>
       <c r="D4">
-        <v>4.037925861462342</v>
+        <v>3.86185860416125</v>
       </c>
       <c r="E4">
-        <v>11.11669153730749</v>
+        <v>11.80982372176826</v>
       </c>
       <c r="F4">
-        <v>15.01740047529345</v>
+        <v>19.8784490040686</v>
       </c>
       <c r="G4">
-        <v>17.99679985748542</v>
+        <v>21.27268973671102</v>
       </c>
       <c r="H4">
-        <v>7.432227830020774</v>
+        <v>12.3691360658243</v>
       </c>
       <c r="I4">
-        <v>11.61657884780862</v>
+        <v>16.93147042600986</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.83722058426141</v>
+        <v>10.16650597519836</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.55792012394426</v>
+        <v>13.59707194288078</v>
       </c>
       <c r="N4">
-        <v>11.79607410643962</v>
+        <v>16.54653562220664</v>
       </c>
       <c r="O4">
-        <v>11.75422788319294</v>
+        <v>17.82709848607391</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.394142129872669</v>
+        <v>3.024502271543396</v>
       </c>
       <c r="D5">
-        <v>3.985420559188146</v>
+        <v>3.842011553345695</v>
       </c>
       <c r="E5">
-        <v>10.95244345489059</v>
+        <v>11.7870853406144</v>
       </c>
       <c r="F5">
-        <v>14.88744915069757</v>
+        <v>19.87778066078012</v>
       </c>
       <c r="G5">
-        <v>17.80045351457606</v>
+        <v>21.26324474823499</v>
       </c>
       <c r="H5">
-        <v>7.435358999267875</v>
+        <v>12.38024823264832</v>
       </c>
       <c r="I5">
-        <v>11.55484783246798</v>
+        <v>16.93970737749336</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.56087824337641</v>
+        <v>10.02362737531758</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.2556023708606</v>
+        <v>13.5245531912977</v>
       </c>
       <c r="N5">
-        <v>11.8134376477099</v>
+        <v>16.55530948141188</v>
       </c>
       <c r="O5">
-        <v>11.71742330192873</v>
+        <v>17.84111623613425</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.380352422645297</v>
+        <v>3.017709344896991</v>
       </c>
       <c r="D6">
-        <v>3.976624149055937</v>
+        <v>3.838696823903164</v>
       </c>
       <c r="E6">
-        <v>10.92513395039471</v>
+        <v>11.78338057634843</v>
       </c>
       <c r="F6">
-        <v>14.86599544095227</v>
+        <v>19.87776721284263</v>
       </c>
       <c r="G6">
-        <v>17.7680051548091</v>
+        <v>21.26181593494803</v>
       </c>
       <c r="H6">
-        <v>7.435964456243564</v>
+        <v>12.38212815278123</v>
       </c>
       <c r="I6">
-        <v>11.54473829041452</v>
+        <v>16.94114566510351</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.51448726465347</v>
+        <v>9.999669277274648</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.204833137058</v>
+        <v>13.51251610226709</v>
       </c>
       <c r="N6">
-        <v>11.81637368378171</v>
+        <v>16.55679198726598</v>
       </c>
       <c r="O6">
-        <v>11.71148607791742</v>
+        <v>17.84351555768341</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.475151475598827</v>
+        <v>3.064474625759117</v>
       </c>
       <c r="D7">
-        <v>4.037223010186865</v>
+        <v>3.861592232616982</v>
       </c>
       <c r="E7">
-        <v>11.1144790211333</v>
+        <v>11.80951232356228</v>
       </c>
       <c r="F7">
-        <v>15.01563967294871</v>
+        <v>19.87843345244114</v>
       </c>
       <c r="G7">
-        <v>17.99414169605893</v>
+        <v>21.27255300754054</v>
       </c>
       <c r="H7">
-        <v>7.43226428968709</v>
+        <v>12.36928359813058</v>
       </c>
       <c r="I7">
-        <v>11.61573689749967</v>
+        <v>16.93157678118742</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.83352762634586</v>
+        <v>10.16459477651205</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.55388114448296</v>
+        <v>13.59609368885531</v>
       </c>
       <c r="N7">
-        <v>11.79630472341061</v>
+        <v>16.54665223290853</v>
       </c>
       <c r="O7">
-        <v>11.75371981318705</v>
+        <v>17.82728272612241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.870710323599719</v>
+        <v>3.261101635121028</v>
       </c>
       <c r="D8">
-        <v>4.293016997210112</v>
+        <v>3.959741537279538</v>
       </c>
       <c r="E8">
-        <v>11.94310944519246</v>
+        <v>11.93497056039227</v>
       </c>
       <c r="F8">
-        <v>15.69279587189913</v>
+        <v>19.89554358460099</v>
       </c>
       <c r="G8">
-        <v>19.0122747166249</v>
+        <v>21.34017528521664</v>
       </c>
       <c r="H8">
-        <v>7.428742929319421</v>
+        <v>12.31765993020348</v>
       </c>
       <c r="I8">
-        <v>11.94928666390395</v>
+        <v>16.8996238229809</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.16739825123358</v>
+        <v>10.85769413403618</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.01142573113304</v>
+        <v>13.9648480768614</v>
       </c>
       <c r="N8">
-        <v>11.71555754122844</v>
+        <v>16.50562607099579</v>
       </c>
       <c r="O8">
-        <v>11.96575448164697</v>
+        <v>17.76609786588888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.564126373207042</v>
+        <v>3.610059325002408</v>
       </c>
       <c r="D9">
-        <v>4.750667202897858</v>
+        <v>4.14095034958194</v>
       </c>
       <c r="E9">
-        <v>13.5306572102523</v>
+        <v>12.21566484253957</v>
       </c>
       <c r="F9">
-        <v>17.0691181148366</v>
+        <v>19.97984556901172</v>
       </c>
       <c r="G9">
-        <v>21.06168018957005</v>
+        <v>21.54487936051726</v>
       </c>
       <c r="H9">
-        <v>7.47141664674162</v>
+        <v>12.23464610655935</v>
       </c>
       <c r="I9">
-        <v>12.67339994736299</v>
+        <v>16.87401536892924</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.51302942352253</v>
+        <v>12.08620575531405</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.57406064684429</v>
+        <v>14.68111784484156</v>
       </c>
       <c r="N9">
-        <v>11.58667490374698</v>
+        <v>16.43849438157597</v>
       </c>
       <c r="O9">
-        <v>12.47629042518985</v>
+        <v>17.68390124020691</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.023410927305296</v>
+        <v>3.843017134189893</v>
       </c>
       <c r="D10">
-        <v>5.058637062332149</v>
+        <v>4.266485686037353</v>
       </c>
       <c r="E10">
-        <v>14.84184215139095</v>
+        <v>12.44119628317852</v>
       </c>
       <c r="F10">
-        <v>18.10008026624647</v>
+        <v>20.07242160860987</v>
       </c>
       <c r="G10">
-        <v>22.58440625245229</v>
+        <v>21.73830560206189</v>
       </c>
       <c r="H10">
-        <v>7.536166094024034</v>
+        <v>12.18480383609528</v>
       </c>
       <c r="I10">
-        <v>13.24518820943807</v>
+        <v>16.87786131249775</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.06987847321421</v>
+        <v>12.90517442166819</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.27932379683441</v>
+        <v>15.19754898452706</v>
       </c>
       <c r="N10">
-        <v>11.51135102531462</v>
+        <v>16.3972544055536</v>
       </c>
       <c r="O10">
-        <v>12.91047045014794</v>
+        <v>17.64673841426034</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.221515524877797</v>
+        <v>3.943742555938747</v>
       </c>
       <c r="D11">
-        <v>5.192384420524675</v>
+        <v>4.321804925726212</v>
       </c>
       <c r="E11">
-        <v>15.44153298979674</v>
+        <v>12.54755678558145</v>
       </c>
       <c r="F11">
-        <v>18.5716352937516</v>
+        <v>20.121091956124</v>
       </c>
       <c r="G11">
-        <v>23.27830287204609</v>
+        <v>21.83537114551681</v>
       </c>
       <c r="H11">
-        <v>7.573528142020618</v>
+        <v>12.16455813639563</v>
       </c>
       <c r="I11">
-        <v>13.51329799547918</v>
+        <v>16.8845340671769</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.74189997084381</v>
+        <v>13.25899042141726</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.01731622433091</v>
+        <v>15.42925107631842</v>
       </c>
       <c r="N11">
-        <v>11.48162486483182</v>
+        <v>16.38024002337671</v>
       </c>
       <c r="O11">
-        <v>13.12093155369435</v>
+        <v>17.63490863854826</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.294982925675551</v>
+        <v>3.981119245729581</v>
       </c>
       <c r="D12">
-        <v>5.242104510501026</v>
+        <v>4.342485127814304</v>
       </c>
       <c r="E12">
-        <v>15.66558926657278</v>
+        <v>12.58833583035586</v>
       </c>
       <c r="F12">
-        <v>18.75044831795272</v>
+        <v>20.14045419732519</v>
       </c>
       <c r="G12">
-        <v>23.54107385859566</v>
+        <v>21.87340424406257</v>
       </c>
       <c r="H12">
-        <v>7.588864723967803</v>
+        <v>12.15724136680099</v>
       </c>
       <c r="I12">
-        <v>13.61592177528722</v>
+        <v>16.8877678867783</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.99117908742084</v>
+        <v>13.39023939508946</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.29141949802509</v>
+        <v>15.51644152379235</v>
       </c>
       <c r="N12">
-        <v>11.47105121703297</v>
+        <v>16.37404753157033</v>
       </c>
       <c r="O12">
-        <v>13.2024893351796</v>
+        <v>17.63116090587273</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.279229246220014</v>
+        <v>3.97310372281714</v>
       </c>
       <c r="D13">
-        <v>5.231437824299867</v>
+        <v>4.338043361826319</v>
       </c>
       <c r="E13">
-        <v>15.61746811810149</v>
+        <v>12.57953160729677</v>
       </c>
       <c r="F13">
-        <v>18.71192856847298</v>
+        <v>20.13624294149744</v>
       </c>
       <c r="G13">
-        <v>23.4844833274857</v>
+        <v>21.86515685104586</v>
       </c>
       <c r="H13">
-        <v>7.585508062510433</v>
+        <v>12.15880159382166</v>
       </c>
       <c r="I13">
-        <v>13.59377195928392</v>
+        <v>16.88704000472761</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.93772350828293</v>
+        <v>13.36209469143856</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.23262360054358</v>
+        <v>15.49768928448609</v>
       </c>
       <c r="N13">
-        <v>11.47329756135174</v>
+        <v>16.37537006413404</v>
       </c>
       <c r="O13">
-        <v>13.18484171537887</v>
+        <v>17.63193546563335</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.22759076416914</v>
+        <v>3.946832963598651</v>
       </c>
       <c r="D14">
-        <v>5.196493572634626</v>
+        <v>4.323511729476976</v>
       </c>
       <c r="E14">
-        <v>15.4600264821759</v>
+        <v>12.55090185452677</v>
       </c>
       <c r="F14">
-        <v>18.58634206569598</v>
+        <v>20.12266629294468</v>
       </c>
       <c r="G14">
-        <v>23.29992186399525</v>
+        <v>21.83847474322414</v>
       </c>
       <c r="H14">
-        <v>7.574765786472732</v>
+        <v>12.1639491660871</v>
       </c>
       <c r="I14">
-        <v>13.52171923622765</v>
+        <v>16.8847859542032</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.76251248773355</v>
+        <v>13.26984333227962</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.03997383753261</v>
+        <v>15.43643578727719</v>
       </c>
       <c r="N14">
-        <v>11.4807410956038</v>
+        <v>16.37972554650873</v>
       </c>
       <c r="O14">
-        <v>13.1276040920152</v>
+        <v>17.63458563082918</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.195758998683598</v>
+        <v>3.930641335527314</v>
       </c>
       <c r="D15">
-        <v>5.174968106601888</v>
+        <v>4.314575472035974</v>
       </c>
       <c r="E15">
-        <v>15.36319670106277</v>
+        <v>12.5334295925207</v>
       </c>
       <c r="F15">
-        <v>18.50944534522189</v>
+        <v>20.11447120102868</v>
       </c>
       <c r="G15">
-        <v>23.18686933829631</v>
+        <v>21.82229651789419</v>
       </c>
       <c r="H15">
-        <v>7.568342091444889</v>
+        <v>12.16714778271189</v>
       </c>
       <c r="I15">
-        <v>13.47772611612834</v>
+        <v>16.88349731432151</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.65451366728499</v>
+        <v>13.21297970736351</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.9212746298957</v>
+        <v>15.3988421407503</v>
       </c>
       <c r="N15">
-        <v>11.48539035480881</v>
+        <v>16.38242600892346</v>
       </c>
       <c r="O15">
-        <v>13.09278660484017</v>
+        <v>17.63630430802971</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.010246969096715</v>
+        <v>3.83632787988635</v>
       </c>
       <c r="D16">
-        <v>5.049767310924402</v>
+        <v>4.26283352143452</v>
       </c>
       <c r="E16">
-        <v>14.80222134862499</v>
+        <v>12.43431784738554</v>
       </c>
       <c r="F16">
-        <v>18.06930363300522</v>
+        <v>20.06937192262865</v>
       </c>
       <c r="G16">
-        <v>22.53906765419368</v>
+        <v>21.73214239049281</v>
       </c>
       <c r="H16">
-        <v>7.533887934413139</v>
+        <v>12.18617585636174</v>
       </c>
       <c r="I16">
-        <v>13.2278228871735</v>
+        <v>16.87752423340931</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.02523204905845</v>
+        <v>12.88167115045331</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.23034051520397</v>
+        <v>15.18233430807751</v>
       </c>
       <c r="N16">
-        <v>11.51338758281724</v>
+        <v>16.39840141829215</v>
       </c>
       <c r="O16">
-        <v>12.89697688277382</v>
+        <v>17.64761384140504</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.893672357544996</v>
+        <v>3.777116790482404</v>
       </c>
       <c r="D17">
-        <v>4.971323333218026</v>
+        <v>4.230625665571338</v>
       </c>
       <c r="E17">
-        <v>14.452579831906</v>
+        <v>12.37445310327328</v>
       </c>
       <c r="F17">
-        <v>17.79985367776985</v>
+        <v>20.04337703348558</v>
       </c>
       <c r="G17">
-        <v>22.14184036870687</v>
+        <v>21.67914083277099</v>
       </c>
       <c r="H17">
-        <v>7.514813679649551</v>
+        <v>12.19847130701029</v>
       </c>
       <c r="I17">
-        <v>13.07652486468929</v>
+        <v>16.87512042773935</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.62991707871987</v>
+        <v>12.67359466087782</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.7968550235228</v>
+        <v>15.04862462333775</v>
       </c>
       <c r="N17">
-        <v>11.53174648363283</v>
+        <v>16.40864857117289</v>
       </c>
       <c r="O17">
-        <v>12.78017118950058</v>
+        <v>17.65585350523357</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.825602200487053</v>
+        <v>3.742566663213184</v>
       </c>
       <c r="D18">
-        <v>4.925607389368579</v>
+        <v>4.211932925443588</v>
       </c>
       <c r="E18">
-        <v>14.2494262041572</v>
+        <v>12.34037728031914</v>
       </c>
       <c r="F18">
-        <v>17.64512078301201</v>
+        <v>20.02904340552377</v>
       </c>
       <c r="G18">
-        <v>21.91348629228416</v>
+        <v>21.64951183521059</v>
       </c>
       <c r="H18">
-        <v>7.504583963991599</v>
+        <v>12.20577180000612</v>
       </c>
       <c r="I18">
-        <v>12.99025835049315</v>
+        <v>16.87420131903283</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.39913439812336</v>
+        <v>12.55215273368986</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.54396875232207</v>
+        <v>14.97141962482674</v>
       </c>
       <c r="N18">
-        <v>11.54273134617632</v>
+        <v>16.41470682780427</v>
       </c>
       <c r="O18">
-        <v>12.71420703582604</v>
+        <v>17.66107040298369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.8023795499841</v>
+        <v>3.730784204712092</v>
       </c>
       <c r="D19">
-        <v>4.910026695205396</v>
+        <v>4.205575440319516</v>
       </c>
       <c r="E19">
-        <v>14.18028751185278</v>
+        <v>12.32890223547026</v>
       </c>
       <c r="F19">
-        <v>17.59277750261153</v>
+        <v>20.02429672870339</v>
       </c>
       <c r="G19">
-        <v>21.83619588217089</v>
+        <v>21.63962781626586</v>
       </c>
       <c r="H19">
-        <v>7.5012460851345</v>
+        <v>12.20828283966755</v>
       </c>
       <c r="I19">
-        <v>12.96118156036421</v>
+        <v>16.87396974877523</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.32041006073971</v>
+        <v>12.51073331238121</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.4577329413478</v>
+        <v>14.94523075160558</v>
       </c>
       <c r="N19">
-        <v>11.54652278729128</v>
+        <v>16.41678629677934</v>
       </c>
       <c r="O19">
-        <v>12.69208211437748</v>
+        <v>17.66291872383389</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.906187401094542</v>
+        <v>3.783471072413944</v>
       </c>
       <c r="D20">
-        <v>4.979735732193394</v>
+        <v>4.234071678079117</v>
       </c>
       <c r="E20">
-        <v>14.49001125075205</v>
+        <v>12.38078915811899</v>
       </c>
       <c r="F20">
-        <v>17.82851242000552</v>
+        <v>20.04608035387253</v>
       </c>
       <c r="G20">
-        <v>22.18411473156418</v>
+        <v>21.68469453244336</v>
       </c>
       <c r="H20">
-        <v>7.516767068852674</v>
+        <v>12.19713878363122</v>
       </c>
       <c r="I20">
-        <v>13.09255294723888</v>
+        <v>16.87532835157185</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.67235174401693</v>
+        <v>12.69592741026793</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.8433679447231</v>
+        <v>15.06288980694916</v>
       </c>
       <c r="N20">
-        <v>11.5297479161943</v>
+        <v>16.40754073720423</v>
       </c>
       <c r="O20">
-        <v>12.79247915061229</v>
+        <v>17.65492692651999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.242800259285761</v>
+        <v>3.954570185402754</v>
       </c>
       <c r="D21">
-        <v>5.206782804851737</v>
+        <v>4.327787379011769</v>
       </c>
       <c r="E21">
-        <v>15.50635247235987</v>
+        <v>12.55929777991842</v>
       </c>
       <c r="F21">
-        <v>18.62322408899747</v>
+        <v>20.12662888994033</v>
       </c>
       <c r="G21">
-        <v>23.35413296961799</v>
+        <v>21.84627752441219</v>
       </c>
       <c r="H21">
-        <v>7.577888399715757</v>
+        <v>12.16242769927006</v>
       </c>
       <c r="I21">
-        <v>13.5428535207775</v>
+        <v>16.88542884694081</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.81411727920715</v>
+        <v>13.29701425085376</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.09670458594451</v>
+        <v>15.45444301535111</v>
       </c>
       <c r="N21">
-        <v>11.47853596154982</v>
+        <v>16.37843944219085</v>
       </c>
       <c r="O21">
-        <v>13.14436570093828</v>
+        <v>17.6337873340673</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.453762819363465</v>
+        <v>4.061925705840778</v>
       </c>
       <c r="D22">
-        <v>5.349762785762445</v>
+        <v>4.387469386375469</v>
       </c>
       <c r="E22">
-        <v>16.15295834413013</v>
+        <v>12.67887455045753</v>
       </c>
       <c r="F22">
-        <v>19.14400175197914</v>
+        <v>20.1846972340127</v>
       </c>
       <c r="G22">
-        <v>24.11880058591828</v>
+        <v>21.95930627402494</v>
       </c>
       <c r="H22">
-        <v>7.624784217335981</v>
+        <v>12.1417814279619</v>
       </c>
       <c r="I22">
-        <v>13.84352008687613</v>
+        <v>16.89615006952428</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.53002112106316</v>
+        <v>13.67391368289057</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.88463650258921</v>
+        <v>15.70710301354025</v>
       </c>
       <c r="N22">
-        <v>11.44906251795237</v>
+        <v>16.36087982163114</v>
       </c>
       <c r="O22">
-        <v>13.38518669217711</v>
+        <v>17.62423837094299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.341992146517613</v>
+        <v>4.005039980012733</v>
       </c>
       <c r="D23">
-        <v>5.273950393393792</v>
+        <v>4.355762747493383</v>
       </c>
       <c r="E23">
-        <v>15.80943342476384</v>
+        <v>12.61480088066889</v>
       </c>
       <c r="F23">
-        <v>18.8659613857429</v>
+        <v>20.15321271893874</v>
       </c>
       <c r="G23">
-        <v>23.71072859345115</v>
+        <v>21.898311541027</v>
       </c>
       <c r="H23">
-        <v>7.599102612447843</v>
+        <v>12.15261389467937</v>
       </c>
       <c r="I23">
-        <v>13.68248258181623</v>
+        <v>16.89005146745344</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.15069891822181</v>
+        <v>13.47422532316333</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.46693226775284</v>
+        <v>15.57257744818677</v>
       </c>
       <c r="N23">
-        <v>11.46441684848202</v>
+        <v>16.37011834161851</v>
       </c>
       <c r="O23">
-        <v>13.25566527569412</v>
+        <v>17.62894383934093</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.900532620441658</v>
+        <v>3.780599885755631</v>
       </c>
       <c r="D24">
-        <v>4.975934408754805</v>
+        <v>4.232514283230761</v>
       </c>
       <c r="E24">
-        <v>14.47309517856155</v>
+        <v>12.37792356193438</v>
       </c>
       <c r="F24">
-        <v>17.81555524022699</v>
+        <v>20.04485627812049</v>
       </c>
       <c r="G24">
-        <v>22.16500242560765</v>
+        <v>21.68218107897674</v>
       </c>
       <c r="H24">
-        <v>7.515881652006581</v>
+        <v>12.19774049584379</v>
       </c>
       <c r="I24">
-        <v>13.08530441448572</v>
+        <v>16.87523290732557</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.65317796752728</v>
+        <v>12.68583642763951</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.82235088840839</v>
+        <v>15.05644154964117</v>
       </c>
       <c r="N24">
-        <v>11.53065013118104</v>
+        <v>16.40804106859579</v>
       </c>
       <c r="O24">
-        <v>12.78691101785001</v>
+        <v>17.65534433834379</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.385360160558631</v>
+        <v>3.519703995121711</v>
       </c>
       <c r="D25">
-        <v>4.631736845952786</v>
+        <v>4.093212861306198</v>
       </c>
       <c r="E25">
-        <v>13.10612028249697</v>
+        <v>12.13619838315561</v>
       </c>
       <c r="F25">
-        <v>16.69266002694365</v>
+        <v>19.95163090620493</v>
       </c>
       <c r="G25">
-        <v>20.50329301655445</v>
+        <v>21.48186367391427</v>
       </c>
       <c r="H25">
-        <v>7.454232690843253</v>
+        <v>12.25514865932113</v>
       </c>
       <c r="I25">
-        <v>12.47029964499668</v>
+        <v>16.87696651526488</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.90764045690205</v>
+        <v>11.7683076412154</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.91220314929693</v>
+        <v>14.48867973737988</v>
       </c>
       <c r="N25">
-        <v>11.61824776802436</v>
+        <v>16.45523326560823</v>
       </c>
       <c r="O25">
-        <v>12.32786048435086</v>
+        <v>17.70207101633056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_136/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.311947710001144</v>
+        <v>4.972327253926554</v>
       </c>
       <c r="D2">
-        <v>3.985601948137338</v>
+        <v>4.359415327551528</v>
       </c>
       <c r="E2">
-        <v>11.97137246248165</v>
+        <v>12.16546544010071</v>
       </c>
       <c r="F2">
-        <v>19.9036211589651</v>
+        <v>15.87993833582869</v>
       </c>
       <c r="G2">
-        <v>21.36340211124057</v>
+        <v>19.29234789947</v>
       </c>
       <c r="H2">
-        <v>12.30490395739066</v>
+        <v>7.431023849736119</v>
       </c>
       <c r="I2">
-        <v>16.89346940137616</v>
+        <v>12.04449961028143</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.03682614254113</v>
+        <v>17.51064049631279</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.06451656611418</v>
+        <v>17.38626430378818</v>
       </c>
       <c r="N2">
-        <v>16.4954129498928</v>
+        <v>11.69562422344071</v>
       </c>
       <c r="O2">
-        <v>17.752069031066</v>
+        <v>12.02954412608326</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.161735716029046</v>
+        <v>4.67137570939761</v>
       </c>
       <c r="D3">
-        <v>3.909766878888276</v>
+        <v>4.163553054056852</v>
       </c>
       <c r="E3">
-        <v>11.86847653828877</v>
+        <v>11.51798300198442</v>
       </c>
       <c r="F3">
-        <v>19.88405102104489</v>
+        <v>15.34113204557021</v>
       </c>
       <c r="G3">
-        <v>21.30153028819468</v>
+        <v>18.48452036123545</v>
       </c>
       <c r="H3">
-        <v>12.34328035612758</v>
+        <v>7.428083457867067</v>
       </c>
       <c r="I3">
-        <v>16.91412700660238</v>
+        <v>11.77374954099841</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.50750684861218</v>
+        <v>16.4947305044292</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.77509068870351</v>
+        <v>16.27665448793753</v>
       </c>
       <c r="N3">
-        <v>16.52604496048048</v>
+        <v>11.75563413794132</v>
       </c>
       <c r="O3">
-        <v>17.79561707485923</v>
+        <v>11.85168323676837</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.06501660086435</v>
+        <v>4.476248318133379</v>
       </c>
       <c r="D4">
-        <v>3.86185860416125</v>
+        <v>4.037925861462317</v>
       </c>
       <c r="E4">
-        <v>11.80982372176826</v>
+        <v>11.11669153730749</v>
       </c>
       <c r="F4">
-        <v>19.8784490040686</v>
+        <v>15.01740047529344</v>
       </c>
       <c r="G4">
-        <v>21.27268973671102</v>
+        <v>17.9967998574854</v>
       </c>
       <c r="H4">
-        <v>12.3691360658243</v>
+        <v>7.432227830020769</v>
       </c>
       <c r="I4">
-        <v>16.93147042600986</v>
+        <v>11.61657884780861</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.16650597519836</v>
+        <v>15.8372205842614</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.59707194288078</v>
+        <v>15.55792012394427</v>
       </c>
       <c r="N4">
-        <v>16.54653562220664</v>
+        <v>11.79607410643962</v>
       </c>
       <c r="O4">
-        <v>17.82709848607391</v>
+        <v>11.75422788319293</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.024502271543396</v>
+        <v>4.394142129872684</v>
       </c>
       <c r="D5">
-        <v>3.842011553345695</v>
+        <v>3.985420559188153</v>
       </c>
       <c r="E5">
-        <v>11.7870853406144</v>
+        <v>10.95244345489061</v>
       </c>
       <c r="F5">
-        <v>19.87778066078012</v>
+        <v>14.88744915069762</v>
       </c>
       <c r="G5">
-        <v>21.26324474823499</v>
+        <v>17.80045351457613</v>
       </c>
       <c r="H5">
-        <v>12.38024823264832</v>
+        <v>7.43535899926788</v>
       </c>
       <c r="I5">
-        <v>16.93970737749336</v>
+        <v>11.55484783246802</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.02362737531758</v>
+        <v>15.56087824337649</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.5245531912977</v>
+        <v>15.25560237086063</v>
       </c>
       <c r="N5">
-        <v>16.55530948141188</v>
+        <v>11.81343764770996</v>
       </c>
       <c r="O5">
-        <v>17.84111623613425</v>
+        <v>11.71742330192876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.017709344896991</v>
+        <v>4.38035242264536</v>
       </c>
       <c r="D6">
-        <v>3.838696823903164</v>
+        <v>3.976624149055993</v>
       </c>
       <c r="E6">
-        <v>11.78338057634843</v>
+        <v>10.92513395039471</v>
       </c>
       <c r="F6">
-        <v>19.87776721284263</v>
+        <v>14.86599544095224</v>
       </c>
       <c r="G6">
-        <v>21.26181593494803</v>
+        <v>17.76800515480907</v>
       </c>
       <c r="H6">
-        <v>12.38212815278123</v>
+        <v>7.435964456243559</v>
       </c>
       <c r="I6">
-        <v>16.94114566510351</v>
+        <v>11.54473829041445</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.999669277274648</v>
+        <v>15.51448726465348</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.51251610226709</v>
+        <v>15.20483313705803</v>
       </c>
       <c r="N6">
-        <v>16.55679198726598</v>
+        <v>11.81637368378171</v>
       </c>
       <c r="O6">
-        <v>17.84351555768341</v>
+        <v>11.71148607791737</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.064474625759117</v>
+        <v>4.475151475598798</v>
       </c>
       <c r="D7">
-        <v>3.861592232616982</v>
+        <v>4.037223010186877</v>
       </c>
       <c r="E7">
-        <v>11.80951232356228</v>
+        <v>11.11447902113333</v>
       </c>
       <c r="F7">
-        <v>19.87843345244114</v>
+        <v>15.01563967294867</v>
       </c>
       <c r="G7">
-        <v>21.27255300754054</v>
+        <v>17.99414169605888</v>
       </c>
       <c r="H7">
-        <v>12.36928359813058</v>
+        <v>7.432264289687078</v>
       </c>
       <c r="I7">
-        <v>16.93157678118742</v>
+        <v>11.61573689749964</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.16459477651205</v>
+        <v>15.83352762634584</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.59609368885531</v>
+        <v>15.55388114448294</v>
       </c>
       <c r="N7">
-        <v>16.54665223290853</v>
+        <v>11.79630472341058</v>
       </c>
       <c r="O7">
-        <v>17.82728272612241</v>
+        <v>11.75371981318702</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.261101635121028</v>
+        <v>4.870710323599658</v>
       </c>
       <c r="D8">
-        <v>3.959741537279538</v>
+        <v>4.29301699720997</v>
       </c>
       <c r="E8">
-        <v>11.93497056039227</v>
+        <v>11.94310944519247</v>
       </c>
       <c r="F8">
-        <v>19.89554358460099</v>
+        <v>15.69279587189911</v>
       </c>
       <c r="G8">
-        <v>21.34017528521664</v>
+        <v>19.01227471662486</v>
       </c>
       <c r="H8">
-        <v>12.31765993020348</v>
+        <v>7.42874292931926</v>
       </c>
       <c r="I8">
-        <v>16.8996238229809</v>
+        <v>11.94928666390386</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.85769413403618</v>
+        <v>17.16739825123367</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.9648480768614</v>
+        <v>17.01142573113307</v>
       </c>
       <c r="N8">
-        <v>16.50562607099579</v>
+        <v>11.71555754122844</v>
       </c>
       <c r="O8">
-        <v>17.76609786588888</v>
+        <v>11.96575448164689</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.610059325002408</v>
+        <v>5.564126373207187</v>
       </c>
       <c r="D9">
-        <v>4.14095034958194</v>
+        <v>4.750667202897878</v>
       </c>
       <c r="E9">
-        <v>12.21566484253957</v>
+        <v>13.53065721025233</v>
       </c>
       <c r="F9">
-        <v>19.97984556901172</v>
+        <v>17.06911811483657</v>
       </c>
       <c r="G9">
-        <v>21.54487936051726</v>
+        <v>21.06168018957004</v>
       </c>
       <c r="H9">
-        <v>12.23464610655935</v>
+        <v>7.47141664674162</v>
       </c>
       <c r="I9">
-        <v>16.87401536892924</v>
+        <v>12.67339994736297</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.08620575531405</v>
+        <v>19.51302942352255</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>14.68111784484156</v>
+        <v>19.57406064684431</v>
       </c>
       <c r="N9">
-        <v>16.43849438157597</v>
+        <v>11.58667490374698</v>
       </c>
       <c r="O9">
-        <v>17.68390124020691</v>
+        <v>12.47629042518984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.843017134189893</v>
+        <v>6.023410927305312</v>
       </c>
       <c r="D10">
-        <v>4.266485686037353</v>
+        <v>5.058637062332074</v>
       </c>
       <c r="E10">
-        <v>12.44119628317852</v>
+        <v>14.84184215139098</v>
       </c>
       <c r="F10">
-        <v>20.07242160860987</v>
+        <v>18.10008026624647</v>
       </c>
       <c r="G10">
-        <v>21.73830560206189</v>
+        <v>22.5844062524523</v>
       </c>
       <c r="H10">
-        <v>12.18480383609528</v>
+        <v>7.536166094024034</v>
       </c>
       <c r="I10">
-        <v>16.87786131249775</v>
+        <v>13.24518820943806</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.90517442166819</v>
+        <v>21.06987847321422</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.19754898452706</v>
+        <v>21.27932379683443</v>
       </c>
       <c r="N10">
-        <v>16.3972544055536</v>
+        <v>11.51135102531459</v>
       </c>
       <c r="O10">
-        <v>17.64673841426034</v>
+        <v>12.91047045014791</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.943742555938747</v>
+        <v>6.221515524877951</v>
       </c>
       <c r="D11">
-        <v>4.321804925726212</v>
+        <v>5.192384420524751</v>
       </c>
       <c r="E11">
-        <v>12.54755678558145</v>
+        <v>15.44153298979677</v>
       </c>
       <c r="F11">
-        <v>20.121091956124</v>
+        <v>18.5716352937516</v>
       </c>
       <c r="G11">
-        <v>21.83537114551681</v>
+        <v>23.2783028720461</v>
       </c>
       <c r="H11">
-        <v>12.16455813639563</v>
+        <v>7.573528142020623</v>
       </c>
       <c r="I11">
-        <v>16.8845340671769</v>
+        <v>13.51329799547919</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.25899042141726</v>
+        <v>21.74189997084378</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.42925107631842</v>
+        <v>22.01731622433091</v>
       </c>
       <c r="N11">
-        <v>16.38024002337671</v>
+        <v>11.48162486483182</v>
       </c>
       <c r="O11">
-        <v>17.63490863854826</v>
+        <v>13.12093155369438</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.981119245729581</v>
+        <v>6.294982925675622</v>
       </c>
       <c r="D12">
-        <v>4.342485127814304</v>
+        <v>5.242104510501084</v>
       </c>
       <c r="E12">
-        <v>12.58833583035586</v>
+        <v>15.66558926657279</v>
       </c>
       <c r="F12">
-        <v>20.14045419732519</v>
+        <v>18.75044831795271</v>
       </c>
       <c r="G12">
-        <v>21.87340424406257</v>
+        <v>23.54107385859561</v>
       </c>
       <c r="H12">
-        <v>12.15724136680099</v>
+        <v>7.588864723967798</v>
       </c>
       <c r="I12">
-        <v>16.8877678867783</v>
+        <v>13.61592177528721</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.39023939508946</v>
+        <v>21.99117908742081</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.51644152379235</v>
+        <v>22.29141949802509</v>
       </c>
       <c r="N12">
-        <v>16.37404753157033</v>
+        <v>11.47105121703298</v>
       </c>
       <c r="O12">
-        <v>17.63116090587273</v>
+        <v>13.20248933517959</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.97310372281714</v>
+        <v>6.279229246220138</v>
       </c>
       <c r="D13">
-        <v>4.338043361826319</v>
+        <v>5.231437824299903</v>
       </c>
       <c r="E13">
-        <v>12.57953160729677</v>
+        <v>15.6174681181014</v>
       </c>
       <c r="F13">
-        <v>20.13624294149744</v>
+        <v>18.711928568473</v>
       </c>
       <c r="G13">
-        <v>21.86515685104586</v>
+        <v>23.48448332748573</v>
       </c>
       <c r="H13">
-        <v>12.15880159382166</v>
+        <v>7.585508062510439</v>
       </c>
       <c r="I13">
-        <v>16.88704000472761</v>
+        <v>13.59377195928393</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.36209469143856</v>
+        <v>21.93772350828293</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.49768928448609</v>
+        <v>22.23262360054353</v>
       </c>
       <c r="N13">
-        <v>16.37537006413404</v>
+        <v>11.47329756135174</v>
       </c>
       <c r="O13">
-        <v>17.63193546563335</v>
+        <v>13.1848417153789</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.946832963598651</v>
+        <v>6.22759076416914</v>
       </c>
       <c r="D14">
-        <v>4.323511729476976</v>
+        <v>5.196493572634693</v>
       </c>
       <c r="E14">
-        <v>12.55090185452677</v>
+        <v>15.46002648217593</v>
       </c>
       <c r="F14">
-        <v>20.12266629294468</v>
+        <v>18.58634206569592</v>
       </c>
       <c r="G14">
-        <v>21.83847474322414</v>
+        <v>23.29992186399522</v>
       </c>
       <c r="H14">
-        <v>12.1639491660871</v>
+        <v>7.574765786472726</v>
       </c>
       <c r="I14">
-        <v>16.8847859542032</v>
+        <v>13.52171923622763</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.26984333227962</v>
+        <v>21.76251248773358</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.43643578727719</v>
+        <v>22.03997383753262</v>
       </c>
       <c r="N14">
-        <v>16.37972554650873</v>
+        <v>11.48074109560381</v>
       </c>
       <c r="O14">
-        <v>17.63458563082918</v>
+        <v>13.12760409201517</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.930641335527314</v>
+        <v>6.195758998683707</v>
       </c>
       <c r="D15">
-        <v>4.314575472035974</v>
+        <v>5.174968106601981</v>
       </c>
       <c r="E15">
-        <v>12.5334295925207</v>
+        <v>15.36319670106277</v>
       </c>
       <c r="F15">
-        <v>20.11447120102868</v>
+        <v>18.50944534522189</v>
       </c>
       <c r="G15">
-        <v>21.82229651789419</v>
+        <v>23.18686933829631</v>
       </c>
       <c r="H15">
-        <v>12.16714778271189</v>
+        <v>7.568342091444889</v>
       </c>
       <c r="I15">
-        <v>16.88349731432151</v>
+        <v>13.47772611612833</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.21297970736351</v>
+        <v>21.65451366728502</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.3988421407503</v>
+        <v>21.92127462989572</v>
       </c>
       <c r="N15">
-        <v>16.38242600892346</v>
+        <v>11.48539035480884</v>
       </c>
       <c r="O15">
-        <v>17.63630430802971</v>
+        <v>13.09278660484017</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.83632787988635</v>
+        <v>6.010246969096771</v>
       </c>
       <c r="D16">
-        <v>4.26283352143452</v>
+        <v>5.049767310924505</v>
       </c>
       <c r="E16">
-        <v>12.43431784738554</v>
+        <v>14.80222134862498</v>
       </c>
       <c r="F16">
-        <v>20.06937192262865</v>
+        <v>18.06930363300517</v>
       </c>
       <c r="G16">
-        <v>21.73214239049281</v>
+        <v>22.53906765419369</v>
       </c>
       <c r="H16">
-        <v>12.18617585636174</v>
+        <v>7.533887934413107</v>
       </c>
       <c r="I16">
-        <v>16.87752423340931</v>
+        <v>13.22782288717342</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.88167115045331</v>
+        <v>21.02523204905853</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.18233430807751</v>
+        <v>21.23034051520402</v>
       </c>
       <c r="N16">
-        <v>16.39840141829215</v>
+        <v>11.51338758281717</v>
       </c>
       <c r="O16">
-        <v>17.64761384140504</v>
+        <v>12.89697688277372</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.777116790482404</v>
+        <v>5.893672357545028</v>
       </c>
       <c r="D17">
-        <v>4.230625665571338</v>
+        <v>4.97132333321802</v>
       </c>
       <c r="E17">
-        <v>12.37445310327328</v>
+        <v>14.45257983190598</v>
       </c>
       <c r="F17">
-        <v>20.04337703348558</v>
+        <v>17.79985367776982</v>
       </c>
       <c r="G17">
-        <v>21.67914083277099</v>
+        <v>22.14184036870682</v>
       </c>
       <c r="H17">
-        <v>12.19847130701029</v>
+        <v>7.514813679649491</v>
       </c>
       <c r="I17">
-        <v>16.87512042773935</v>
+        <v>13.07652486468924</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.67359466087782</v>
+        <v>20.6299170787199</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.04862462333775</v>
+        <v>20.79685502352281</v>
       </c>
       <c r="N17">
-        <v>16.40864857117289</v>
+        <v>11.5317464836328</v>
       </c>
       <c r="O17">
-        <v>17.65585350523357</v>
+        <v>12.78017118950055</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.742566663213184</v>
+        <v>5.825602200486982</v>
       </c>
       <c r="D18">
-        <v>4.211932925443588</v>
+        <v>4.925607389368528</v>
       </c>
       <c r="E18">
-        <v>12.34037728031914</v>
+        <v>14.2494262041572</v>
       </c>
       <c r="F18">
-        <v>20.02904340552377</v>
+        <v>17.64512078301203</v>
       </c>
       <c r="G18">
-        <v>21.64951183521059</v>
+        <v>21.91348629228419</v>
       </c>
       <c r="H18">
-        <v>12.20577180000612</v>
+        <v>7.50458396399157</v>
       </c>
       <c r="I18">
-        <v>16.87420131903283</v>
+        <v>12.99025835049316</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.55215273368986</v>
+        <v>20.39913439812338</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.97141962482674</v>
+        <v>20.54396875232209</v>
       </c>
       <c r="N18">
-        <v>16.41470682780427</v>
+        <v>11.54273134617631</v>
       </c>
       <c r="O18">
-        <v>17.66107040298369</v>
+        <v>12.71420703582602</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.730784204712092</v>
+        <v>5.802379549984115</v>
       </c>
       <c r="D19">
-        <v>4.205575440319516</v>
+        <v>4.910026695205436</v>
       </c>
       <c r="E19">
-        <v>12.32890223547026</v>
+        <v>14.18028751185277</v>
       </c>
       <c r="F19">
-        <v>20.02429672870339</v>
+        <v>17.59277750261158</v>
       </c>
       <c r="G19">
-        <v>21.63962781626586</v>
+        <v>21.83619588217091</v>
       </c>
       <c r="H19">
-        <v>12.20828283966755</v>
+        <v>7.501246085134518</v>
       </c>
       <c r="I19">
-        <v>16.87396974877523</v>
+        <v>12.96118156036424</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.51073331238121</v>
+        <v>20.32041006073972</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.94523075160558</v>
+        <v>20.4577329413478</v>
       </c>
       <c r="N19">
-        <v>16.41678629677934</v>
+        <v>11.54652278729131</v>
       </c>
       <c r="O19">
-        <v>17.66291872383389</v>
+        <v>12.69208211437751</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.783471072413944</v>
+        <v>5.906187401094598</v>
       </c>
       <c r="D20">
-        <v>4.234071678079117</v>
+        <v>4.979735732193387</v>
       </c>
       <c r="E20">
-        <v>12.38078915811899</v>
+        <v>14.49001125075204</v>
       </c>
       <c r="F20">
-        <v>20.04608035387253</v>
+        <v>17.82851242000548</v>
       </c>
       <c r="G20">
-        <v>21.68469453244336</v>
+        <v>22.18411473156413</v>
       </c>
       <c r="H20">
-        <v>12.19713878363122</v>
+        <v>7.516767068852668</v>
       </c>
       <c r="I20">
-        <v>16.87532835157185</v>
+        <v>13.09255294723884</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.69592741026793</v>
+        <v>20.67235174401693</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.06288980694916</v>
+        <v>20.8433679447231</v>
       </c>
       <c r="N20">
-        <v>16.40754073720423</v>
+        <v>11.5297479161943</v>
       </c>
       <c r="O20">
-        <v>17.65492692651999</v>
+        <v>12.79247915061225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.954570185402754</v>
+        <v>6.242800259285652</v>
       </c>
       <c r="D21">
-        <v>4.327787379011769</v>
+        <v>5.2067828048517</v>
       </c>
       <c r="E21">
-        <v>12.55929777991842</v>
+        <v>15.50635247235986</v>
       </c>
       <c r="F21">
-        <v>20.12662888994033</v>
+        <v>18.6232240889975</v>
       </c>
       <c r="G21">
-        <v>21.84627752441219</v>
+        <v>23.35413296961795</v>
       </c>
       <c r="H21">
-        <v>12.16242769927006</v>
+        <v>7.577888399715802</v>
       </c>
       <c r="I21">
-        <v>16.88542884694081</v>
+        <v>13.54285352077753</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.29701425085376</v>
+        <v>21.81411727920714</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.45444301535111</v>
+        <v>22.09670458594451</v>
       </c>
       <c r="N21">
-        <v>16.37843944219085</v>
+        <v>11.47853596154985</v>
       </c>
       <c r="O21">
-        <v>17.6337873340673</v>
+        <v>13.14436570093829</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.061925705840778</v>
+        <v>6.453762819363404</v>
       </c>
       <c r="D22">
-        <v>4.387469386375469</v>
+        <v>5.349762785762285</v>
       </c>
       <c r="E22">
-        <v>12.67887455045753</v>
+        <v>16.1529583441301</v>
       </c>
       <c r="F22">
-        <v>20.1846972340127</v>
+        <v>19.14400175197911</v>
       </c>
       <c r="G22">
-        <v>21.95930627402494</v>
+        <v>24.11880058591822</v>
       </c>
       <c r="H22">
-        <v>12.1417814279619</v>
+        <v>7.624784217335969</v>
       </c>
       <c r="I22">
-        <v>16.89615006952428</v>
+        <v>13.84352008687611</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.67391368289057</v>
+        <v>22.53002112106315</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.70710301354025</v>
+        <v>22.88463650258922</v>
       </c>
       <c r="N22">
-        <v>16.36087982163114</v>
+        <v>11.44906251795237</v>
       </c>
       <c r="O22">
-        <v>17.62423837094299</v>
+        <v>13.38518669217708</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.005039980012733</v>
+        <v>6.341992146517558</v>
       </c>
       <c r="D23">
-        <v>4.355762747493383</v>
+        <v>5.273950393393815</v>
       </c>
       <c r="E23">
-        <v>12.61480088066889</v>
+        <v>15.80943342476386</v>
       </c>
       <c r="F23">
-        <v>20.15321271893874</v>
+        <v>18.86596138574295</v>
       </c>
       <c r="G23">
-        <v>21.898311541027</v>
+        <v>23.71072859345117</v>
       </c>
       <c r="H23">
-        <v>12.15261389467937</v>
+        <v>7.59910261244785</v>
       </c>
       <c r="I23">
-        <v>16.89005146745344</v>
+        <v>13.68248258181627</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.47422532316333</v>
+        <v>22.15069891822179</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.57257744818677</v>
+        <v>22.46693226775284</v>
       </c>
       <c r="N23">
-        <v>16.37011834161851</v>
+        <v>11.46441684848204</v>
       </c>
       <c r="O23">
-        <v>17.62894383934093</v>
+        <v>13.25566527569416</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.780599885755631</v>
+        <v>5.900532620441406</v>
       </c>
       <c r="D24">
-        <v>4.232514283230761</v>
+        <v>4.975934408754703</v>
       </c>
       <c r="E24">
-        <v>12.37792356193438</v>
+        <v>14.4730951785615</v>
       </c>
       <c r="F24">
-        <v>20.04485627812049</v>
+        <v>17.81555524022707</v>
       </c>
       <c r="G24">
-        <v>21.68218107897674</v>
+        <v>22.16500242560769</v>
       </c>
       <c r="H24">
-        <v>12.19774049584379</v>
+        <v>7.515881652006581</v>
       </c>
       <c r="I24">
-        <v>16.87523290732557</v>
+        <v>13.08530441448579</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.68583642763951</v>
+        <v>20.65317796752727</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.05644154964117</v>
+        <v>20.82235088840837</v>
       </c>
       <c r="N24">
-        <v>16.40804106859579</v>
+        <v>11.5306501311811</v>
       </c>
       <c r="O24">
-        <v>17.65534433834379</v>
+        <v>12.78691101785002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.519703995121711</v>
+        <v>5.385360160558703</v>
       </c>
       <c r="D25">
-        <v>4.093212861306198</v>
+        <v>4.63173684595278</v>
       </c>
       <c r="E25">
-        <v>12.13619838315561</v>
+        <v>13.10612028249698</v>
       </c>
       <c r="F25">
-        <v>19.95163090620493</v>
+        <v>16.6926600269436</v>
       </c>
       <c r="G25">
-        <v>21.48186367391427</v>
+        <v>20.50329301655444</v>
       </c>
       <c r="H25">
-        <v>12.25514865932113</v>
+        <v>7.454232690843209</v>
       </c>
       <c r="I25">
-        <v>16.87696651526488</v>
+        <v>12.47029964499659</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.7683076412154</v>
+        <v>18.90764045690212</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.48867973737988</v>
+        <v>18.91220314929696</v>
       </c>
       <c r="N25">
-        <v>16.45523326560823</v>
+        <v>11.61824776802433</v>
       </c>
       <c r="O25">
-        <v>17.70207101633056</v>
+        <v>12.32786048435076</v>
       </c>
     </row>
   </sheetData>
